--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8367830475999647</v>
+        <v>0.8864980626414685</v>
       </c>
       <c r="D2">
-        <v>0.9930759725990064</v>
+        <v>0.994489008912812</v>
       </c>
       <c r="E2">
-        <v>0.9840661831149227</v>
+        <v>0.9856185649339626</v>
       </c>
       <c r="F2">
-        <v>0.8178386053584612</v>
+        <v>0.8583128676225149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8367830475999647</v>
+        <v>0.8864980626414685</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7851855597413404</v>
+        <v>0.8207769040757169</v>
       </c>
       <c r="E3">
-        <v>0.7878373718489149</v>
+        <v>0.8249384418395114</v>
       </c>
       <c r="F3">
-        <v>0.5686153801366705</v>
+        <v>0.5808894491054428</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9930759725990064</v>
+        <v>0.994489008912812</v>
       </c>
       <c r="C4">
-        <v>0.7851855597413404</v>
+        <v>0.8207769040757169</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.993853348579417</v>
+        <v>0.9945536183387778</v>
       </c>
       <c r="F4">
-        <v>0.7198228069507473</v>
+        <v>0.7422952320800116</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9840661831149227</v>
+        <v>0.9856185649339626</v>
       </c>
       <c r="C5">
-        <v>0.7878373718489149</v>
+        <v>0.8249384418395114</v>
       </c>
       <c r="D5">
-        <v>0.993853348579417</v>
+        <v>0.9945536183387778</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.7466582140115148</v>
+        <v>0.7878278934441709</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8178386053584612</v>
+        <v>0.8583128676225149</v>
       </c>
       <c r="C6">
-        <v>0.5686153801366705</v>
+        <v>0.5808894491054428</v>
       </c>
       <c r="D6">
-        <v>0.7198228069507473</v>
+        <v>0.7422952320800116</v>
       </c>
       <c r="E6">
-        <v>0.7466582140115148</v>
+        <v>0.7878278934441709</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2061221855953705</v>
+        <v>0.1453608237453891</v>
       </c>
       <c r="D2">
-        <v>0.008682621146170329</v>
+        <v>0.007031406160826631</v>
       </c>
       <c r="E2">
-        <v>0.01998183587223632</v>
+        <v>0.01835003850928072</v>
       </c>
       <c r="F2">
-        <v>-0.2304524404466245</v>
+        <v>-0.181842590765286</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.2061221855953705</v>
+        <v>-0.1453608237453891</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.2727205588176513</v>
+        <v>-0.2308420285208276</v>
       </c>
       <c r="E3">
-        <v>-0.269270642071704</v>
+        <v>-0.2253826025874108</v>
       </c>
       <c r="F3">
-        <v>-0.5704863544496188</v>
+        <v>-0.5651899753631022</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.008682621146170329</v>
+        <v>-0.007031406160826631</v>
       </c>
       <c r="C4">
-        <v>0.2727205588176513</v>
+        <v>0.2308420285208276</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.007707783360009772</v>
+        <v>0.006948970353943927</v>
       </c>
       <c r="F4">
-        <v>-0.3589069991726993</v>
+        <v>-0.335401502127754</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.01998183587223632</v>
+        <v>-0.01835003850928072</v>
       </c>
       <c r="C5">
-        <v>0.269270642071704</v>
+        <v>0.2253826025874108</v>
       </c>
       <c r="D5">
-        <v>-0.007707783360009772</v>
+        <v>-0.006948970353943927</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.3232351641521061</v>
+        <v>-0.2743426275790073</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2304524404466245</v>
+        <v>0.181842590765286</v>
       </c>
       <c r="C6">
-        <v>0.5704863544496188</v>
+        <v>0.5651899753631022</v>
       </c>
       <c r="D6">
-        <v>0.3589069991726993</v>
+        <v>0.335401502127754</v>
       </c>
       <c r="E6">
-        <v>0.3232351641521061</v>
+        <v>0.2743426275790073</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8864980626414685</v>
+        <v>0.1161040442546928</v>
       </c>
       <c r="D2">
-        <v>0.994489008912812</v>
+        <v>0.2665383308464646</v>
       </c>
       <c r="E2">
-        <v>0.9856185649339626</v>
+        <v>0.09412299733403695</v>
       </c>
       <c r="F2">
-        <v>0.8583128676225149</v>
+        <v>0.5228798366457315</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8864980626414685</v>
+        <v>0.1161040442546928</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8207769040757169</v>
+        <v>0.8231804576261976</v>
       </c>
       <c r="E3">
-        <v>0.8249384418395114</v>
+        <v>0.8816678333962127</v>
       </c>
       <c r="F3">
-        <v>0.5808894491054428</v>
+        <v>0.5161278801374882</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.994489008912812</v>
+        <v>0.2665383308464646</v>
       </c>
       <c r="C4">
-        <v>0.8207769040757169</v>
+        <v>0.8231804576261976</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.9945536183387778</v>
+        <v>0.9429489946137333</v>
       </c>
       <c r="F4">
-        <v>0.7422952320800116</v>
+        <v>0.6273210210726292</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9856185649339626</v>
+        <v>0.09412299733403695</v>
       </c>
       <c r="C5">
-        <v>0.8249384418395114</v>
+        <v>0.8816678333962127</v>
       </c>
       <c r="D5">
-        <v>0.9945536183387778</v>
+        <v>0.9429489946137333</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.7878278934441709</v>
+        <v>0.6185526768053804</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8583128676225149</v>
+        <v>0.5228798366457315</v>
       </c>
       <c r="C6">
-        <v>0.5808894491054428</v>
+        <v>0.5161278801374882</v>
       </c>
       <c r="D6">
-        <v>0.7422952320800116</v>
+        <v>0.6273210210726292</v>
       </c>
       <c r="E6">
-        <v>0.7878278934441709</v>
+        <v>0.6185526768053804</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1453608237453891</v>
+        <v>-1.635825154228888</v>
       </c>
       <c r="D2">
-        <v>0.007031406160826631</v>
+        <v>-1.140019093371996</v>
       </c>
       <c r="E2">
-        <v>0.01835003850928072</v>
+        <v>-1.749614436072301</v>
       </c>
       <c r="F2">
-        <v>-0.181842590765286</v>
+        <v>-0.6492783991546532</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.1453608237453891</v>
+        <v>1.635825154228888</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.2308420285208276</v>
+        <v>0.2261398325657471</v>
       </c>
       <c r="E3">
-        <v>-0.2253826025874108</v>
+        <v>0.1505945102464088</v>
       </c>
       <c r="F3">
-        <v>-0.5651899753631022</v>
+        <v>0.6599633444060266</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.007031406160826631</v>
+        <v>1.140019093371996</v>
       </c>
       <c r="C4">
-        <v>0.2308420285208276</v>
+        <v>-0.2261398325657471</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.006948970353943927</v>
+        <v>-0.07238574323767487</v>
       </c>
       <c r="F4">
-        <v>-0.335401502127754</v>
+        <v>0.4923909203969143</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.01835003850928072</v>
+        <v>1.749614436072301</v>
       </c>
       <c r="C5">
-        <v>0.2253826025874108</v>
+        <v>-0.1505945102464088</v>
       </c>
       <c r="D5">
-        <v>-0.006948970353943927</v>
+        <v>0.07238574323767487</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.2743426275790073</v>
+        <v>0.5050400176466968</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.181842590765286</v>
+        <v>0.6492783991546532</v>
       </c>
       <c r="C6">
-        <v>0.5651899753631022</v>
+        <v>-0.6599633444060266</v>
       </c>
       <c r="D6">
-        <v>0.335401502127754</v>
+        <v>-0.4923909203969143</v>
       </c>
       <c r="E6">
-        <v>0.2743426275790073</v>
+        <v>-0.5050400176466968</v>
       </c>
       <c r="F6">
         <v>0</v>
